--- a/biology/Médecine/Marcel_Lelong/Marcel_Lelong.xlsx
+++ b/biology/Médecine/Marcel_Lelong/Marcel_Lelong.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marcel Lelong, né le 10 janvier 1892 à Aubigny-aux-Kaisnes en Picardie et mort le 31 août 1973 à Ronquerolles (Val-d'Oise), est un pédiatre français. 
 Reconnu comme ayant largement contribué au XXe siècle à l'essor de la pédiatrie contemporaine, la chaire de puériculture est créée pour lui en 1946 à la Faculté de médecine de Paris.
@@ -516,14 +528,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance et études
-Boursier de l'enseignement secondaire, il étudie au lycée de Saint-Quentin. Il commence sa médecine à Lille en 1911, puis la poursuit à Paris. En août 1914, la guerre interrompt ses études[1].
-Guerre et captivité
-Médecin auxiliaire de bataillon, il participe en première ligne à la bataille de Verdun. Il est fait prisonnier avec ses blessés. II est envoyé en camp en Allemagne, puis déporté en camp de représailles[1].
-Carrière médicale
-Il termine ses études de médecine après sa démobilisation. Interne en 1920, il a notamment pour maîtres Léon Bernard et Robert Debré, auxquels il s'attache et qui orientent sa carrière vers la tuberculose et la pédiatrie[1].
-Médecin des hôpitaux de Paris en 1930, il devient professeur agrégé en 1936, directeur de l'École de puériculture de Paris en 1943, professeur de puériculture en 1946 et membre de l'Académie nationale de médecine en 1960[1],[2].
-Il accomplit l'essentiel de sa carrière à l'Hospice des Enfants-Assistés dans le 14e arrondissement de Paris, qu'il transforme en un hôpital moderne et qu'il renomme « hôpital Saint-Vincent-de-Paul »[3],[1].
+          <t>Enfance et études</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boursier de l'enseignement secondaire, il étudie au lycée de Saint-Quentin. Il commence sa médecine à Lille en 1911, puis la poursuit à Paris. En août 1914, la guerre interrompt ses études.
 </t>
         </is>
       </c>
@@ -549,26 +560,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Œuvre scientifique</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'œuvre scientifique de Marcel Lelong porte sur trois domaines : la tuberculose et les maladies infectieuses, la médecine du premier âge et la pédiatrie sociale.
-Tuberculose et maladies infectieuses
-Il démontre par ses travaux sur le nourrisson issu de parents tuberculeux que la tuberculose humaine ne se transmet pas par hérédité mais par contagion[1],[2].
-Il fournit la démonstration scientifique de l'efficacité et de l'innocuité de la vaccination du nourrisson par le BCG[1],[2]
-Il dépiste la première observation française de toxoplasmose, de périartérite noueuse et d'herpès généralisé du nouveau-né[1],[2].
-Médecine du premier âge
-Il se voue à partir de 1947 à l'étude et à la solution des multiples problèmes posés par la prématurité.
-Il participe à la création de la profession de puéricultrice via le diplôme d'État de puéricultrice créé en 1947, en soulevant le besoin auprès du ministère de la Santé[4].
-Il définit les règles devant présider à la bonne organisation d'un centre pour prématurés, passant notamment par un accouchement selon des règles spéciales et le transfert rapide dans un centre spécialisé assurant la surveillance, les soins préventifs et l'alimentation du prématuré, et auquel il convient d'adjoindre un lactarium[1],[2].
-Il met en place une telle organisation dans les locaux de l'École de puériculture[5] qu'il dirige. Il en fait un centre pilote agréé par l'Organisation mondiale de la santé, au sein duquel pédiatres et puériculteurs de tous pays viennent se former et se perfectionner[1],[3].
-Ses études les plus remarquables sur le nourrisson sont consacrées aux pathologies digestives[2].
-Pédiatrie sociale
-Il consacre une bonne partie de son activité à l'enseignement et l'action sociale en faveur de l'enfance défavorisée[6].
-Il participe à partir de 1923 à l'œuvre du Placement familial des Tout-Petits, dont il devient secrétaire général puis président[1],[2].
-Il participe à de nombreuses autres œuvres ou commissions officielles dans le domaine de l'enfance délaissée[1],[2] : membre de la Section de l'Enfance du Conseil permanent d'Hygiène sociale, membre ou président de diverses commissions d'hygiène sociale du département de la Seine, médecin consultant régional de pédiatrie pour Paris, membre du groupe de l'Organisation mondiale de la santé pour l'enfance et la prématurité, président fondateur de l'Association des Crèches et Pouponnières pour Enfants d'Étudiants, président de l'Association française de lutte contre la Mucoviscidose, etc.
+          <t>Guerre et captivité</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Médecin auxiliaire de bataillon, il participe en première ligne à la bataille de Verdun. Il est fait prisonnier avec ses blessés. II est envoyé en camp en Allemagne, puis déporté en camp de représailles.
 </t>
         </is>
       </c>
@@ -594,54 +597,249 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière médicale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il termine ses études de médecine après sa démobilisation. Interne en 1920, il a notamment pour maîtres Léon Bernard et Robert Debré, auxquels il s'attache et qui orientent sa carrière vers la tuberculose et la pédiatrie.
+Médecin des hôpitaux de Paris en 1930, il devient professeur agrégé en 1936, directeur de l'École de puériculture de Paris en 1943, professeur de puériculture en 1946 et membre de l'Académie nationale de médecine en 1960,.
+Il accomplit l'essentiel de sa carrière à l'Hospice des Enfants-Assistés dans le 14e arrondissement de Paris, qu'il transforme en un hôpital moderne et qu'il renomme « hôpital Saint-Vincent-de-Paul »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marcel_Lelong</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marcel_Lelong</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre scientifique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'œuvre scientifique de Marcel Lelong porte sur trois domaines : la tuberculose et les maladies infectieuses, la médecine du premier âge et la pédiatrie sociale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marcel_Lelong</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marcel_Lelong</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre scientifique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tuberculose et maladies infectieuses</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il démontre par ses travaux sur le nourrisson issu de parents tuberculeux que la tuberculose humaine ne se transmet pas par hérédité mais par contagion,.
+Il fournit la démonstration scientifique de l'efficacité et de l'innocuité de la vaccination du nourrisson par le BCG,
+Il dépiste la première observation française de toxoplasmose, de périartérite noueuse et d'herpès généralisé du nouveau-né,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Marcel_Lelong</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marcel_Lelong</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre scientifique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Médecine du premier âge</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se voue à partir de 1947 à l'étude et à la solution des multiples problèmes posés par la prématurité.
+Il participe à la création de la profession de puéricultrice via le diplôme d'État de puéricultrice créé en 1947, en soulevant le besoin auprès du ministère de la Santé.
+Il définit les règles devant présider à la bonne organisation d'un centre pour prématurés, passant notamment par un accouchement selon des règles spéciales et le transfert rapide dans un centre spécialisé assurant la surveillance, les soins préventifs et l'alimentation du prématuré, et auquel il convient d'adjoindre un lactarium,.
+Il met en place une telle organisation dans les locaux de l'École de puériculture qu'il dirige. Il en fait un centre pilote agréé par l'Organisation mondiale de la santé, au sein duquel pédiatres et puériculteurs de tous pays viennent se former et se perfectionner,.
+Ses études les plus remarquables sur le nourrisson sont consacrées aux pathologies digestives.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Marcel_Lelong</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marcel_Lelong</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre scientifique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Pédiatrie sociale</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il consacre une bonne partie de son activité à l'enseignement et l'action sociale en faveur de l'enfance défavorisée.
+Il participe à partir de 1923 à l'œuvre du Placement familial des Tout-Petits, dont il devient secrétaire général puis président,.
+Il participe à de nombreuses autres œuvres ou commissions officielles dans le domaine de l'enfance délaissée, : membre de la Section de l'Enfance du Conseil permanent d'Hygiène sociale, membre ou président de diverses commissions d'hygiène sociale du département de la Seine, médecin consultant régional de pédiatrie pour Paris, membre du groupe de l'Organisation mondiale de la santé pour l'enfance et la prématurité, président fondateur de l'Association des Crèches et Pouponnières pour Enfants d'Étudiants, président de l'Association française de lutte contre la Mucoviscidose, etc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Marcel_Lelong</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marcel_Lelong</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Décorations et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au cours de sa vie, il reçoit plusieurs décorations et distinctions[1] :
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au cours de sa vie, il reçoit plusieurs décorations et distinctions :
 Commandeur de la Légion d'honneur
-Croix de guerre (1914-1918), 3 citations[2]
+Croix de guerre (1914-1918), 3 citations
 Commandeur de l'ordre de la Santé publique
 Médaille d'or de l'Académie nationale de médecine (1944)
-Médaille Arvo Ylppö (1962)[7]
+Médaille Arvo Ylppö (1962)
 Médaille d'or de l'Académie finlandaise (1966)
 Membre honoraire de la Royal Society of Medicine
 Membre des sociétés de pédiatrie canadienne, suisse, portugaise, hellénique et turque.
-Un bâtiment de l'ancien hôpital Saint Vincent de Paul à Paris porte son nom[8],[9].
+Un bâtiment de l'ancien hôpital Saint Vincent de Paul à Paris porte son nom,.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Marcel_Lelong</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Marcel_Lelong</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Marcel_Lelong</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marcel_Lelong</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Il publie divers ouvrages dans le domaine de la médecine[10] :
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Il publie divers ouvrages dans le domaine de la médecine :
 L'enfant issu de parents tuberculeux : Étude critique de l'hérédité tuberculeuse (thèse de médecine) (1925)
-Traité de pédiatrie (avec Robert Debré), collection médico-chirurgicale à révision annuelle, aux éditions Flammarion (1952, 1957)[3]
+Traité de pédiatrie (avec Robert Debré), collection médico-chirurgicale à révision annuelle, aux éditions Flammarion (1952, 1957)
 La puériculture, collection "Que sais-je ?" aux Presses universitaires de France (1957, 1960, 1966, 1971)</t>
         </is>
       </c>
